--- a/기획/시스템 기획/System_LobbyScene.xlsx
+++ b/기획/시스템 기획/System_LobbyScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07E3EE-EF73-4206-8902-53EB1C0D825D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B059034-15A5-4E1D-A266-4BEA23D330D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -1191,6 +1191,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1200,7 +1212,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1214,54 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8232,8 +8232,8 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8302,36 +8302,36 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="47" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="37"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="46"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="39"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -8339,20 +8339,20 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="37"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="27" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="38"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -8360,20 +8360,20 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="46"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="39"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -8381,13 +8381,13 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="36"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="20" t="s">
         <v>64</v>
       </c>
@@ -8402,13 +8402,13 @@
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="36"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="20" t="s">
         <v>16</v>
       </c>
@@ -8423,20 +8423,20 @@
       <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="37"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="27" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="38"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -8444,22 +8444,22 @@
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="43" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="46"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="39"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -8467,13 +8467,13 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="36"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -8486,13 +8486,13 @@
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="36"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -8505,13 +8505,13 @@
       <c r="S17" s="11"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="36"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -8524,13 +8524,13 @@
       <c r="S18" s="11"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="36"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="20" t="s">
         <v>16</v>
       </c>
@@ -8545,47 +8545,47 @@
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="37"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="27" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="30"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="46"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="36"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="20" t="s">
         <v>35</v>
       </c>
@@ -8595,13 +8595,13 @@
       <c r="L22" s="22"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="36"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -8609,13 +8609,13 @@
       <c r="L23" s="22"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="36"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="20" t="s">
         <v>16</v>
       </c>
@@ -8625,48 +8625,48 @@
       <c r="L24" s="22"/>
     </row>
     <row r="25" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="37"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="27" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="46"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="39"/>
       <c r="N26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="36"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="38"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -8674,13 +8674,13 @@
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="36"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="20" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="38"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="20" t="s">
         <v>62</v>
       </c>
@@ -8690,13 +8690,13 @@
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="36"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="20" t="s">
         <v>16</v>
       </c>
@@ -8706,45 +8706,45 @@
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="37"/>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="30"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="38"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="46"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C32" s="36"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="38"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="20"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -8752,13 +8752,13 @@
       <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="36"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="38"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="20" t="s">
         <v>61</v>
       </c>
@@ -8768,13 +8768,13 @@
       <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="36"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="38"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="20" t="s">
         <v>16</v>
       </c>
@@ -8784,45 +8784,45 @@
       <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="37"/>
-      <c r="D35" s="27" t="s">
+      <c r="C35" s="44"/>
+      <c r="D35" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="30"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="38"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="46"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="39"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="36"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="20" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="20"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
@@ -8830,13 +8830,13 @@
       <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="36"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="20" t="s">
         <v>60</v>
       </c>
@@ -8846,13 +8846,13 @@
       <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="36"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="20" t="s">
         <v>16</v>
       </c>
@@ -8862,47 +8862,47 @@
       <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="37"/>
-      <c r="D40" s="27" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="27" t="s">
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="30"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="38"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="43" t="s">
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="46"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="36"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="20" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="38"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -8910,13 +8910,13 @@
       <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="36"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
-      <c r="G43" s="38"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="20" t="s">
         <v>69</v>
       </c>
@@ -8926,13 +8926,13 @@
       <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="36"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="38"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="20" t="s">
         <v>70</v>
       </c>
@@ -8945,13 +8945,13 @@
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="36"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="20" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="38"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="20" t="s">
         <v>72</v>
       </c>
@@ -8961,13 +8961,13 @@
       <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="36"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="38"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -8975,13 +8975,13 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="36"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="38"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="20" t="s">
         <v>76</v>
       </c>
@@ -8991,13 +8991,13 @@
       <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="36"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="38"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="20" t="s">
         <v>16</v>
       </c>
@@ -9007,45 +9007,45 @@
       <c r="L48" s="22"/>
     </row>
     <row r="49" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="37"/>
-      <c r="D49" s="27" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="27" t="s">
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="30"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="38"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="36"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="20" t="s">
         <v>16</v>
       </c>
@@ -9055,63 +9055,63 @@
       <c r="L51" s="22"/>
     </row>
     <row r="52" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="37"/>
-      <c r="D52" s="27" t="s">
+      <c r="C52" s="44"/>
+      <c r="D52" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="27" t="s">
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="30"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="43" t="s">
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="46"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="39"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C54" s="36"/>
-      <c r="D54" s="39" t="s">
+      <c r="C54" s="45"/>
+      <c r="D54" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="39" t="s">
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="42"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="46"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C55" s="36"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="38"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="20"/>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
@@ -9119,13 +9119,13 @@
       <c r="L55" s="22"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C56" s="36"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="20" t="s">
         <v>99</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="38"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
@@ -9133,13 +9133,13 @@
       <c r="L56" s="22"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C57" s="36"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="38"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="20" t="s">
         <v>94</v>
       </c>
@@ -9149,13 +9149,13 @@
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C58" s="36"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="38"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -9163,13 +9163,13 @@
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C59" s="36"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="38"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="20" t="s">
         <v>93</v>
       </c>
@@ -9179,13 +9179,13 @@
       <c r="L59" s="22"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C60" s="36"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
-      <c r="G60" s="38"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="20"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
@@ -9193,13 +9193,13 @@
       <c r="L60" s="22"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C61" s="36"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="38"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="20" t="s">
         <v>92</v>
       </c>
@@ -9209,13 +9209,13 @@
       <c r="L61" s="22"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C62" s="36"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="20" t="s">
         <v>97</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="38"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="20"/>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
@@ -9223,13 +9223,13 @@
       <c r="L62" s="22"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C63" s="36"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="38"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="20"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
@@ -9237,13 +9237,13 @@
       <c r="L63" s="22"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C64" s="36"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="38"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="20" t="s">
         <v>76</v>
       </c>
@@ -9253,13 +9253,13 @@
       <c r="L64" s="22"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C65" s="36"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="38"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="20" t="s">
         <v>16</v>
       </c>
@@ -9269,13 +9269,13 @@
       <c r="L65" s="22"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="36"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="20" t="s">
         <v>106</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="38"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="20" t="s">
         <v>87</v>
       </c>
@@ -9285,13 +9285,13 @@
       <c r="L66" s="22"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="36"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="38"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="20"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
@@ -9299,29 +9299,29 @@
       <c r="L67" s="22"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C68" s="36"/>
-      <c r="D68" s="39" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="39" t="s">
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="42"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="36"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="38"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="20" t="s">
         <v>16</v>
       </c>
@@ -9331,32 +9331,127 @@
       <c r="L69" s="22"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C70" s="37"/>
-      <c r="D70" s="27" t="s">
+      <c r="C70" s="44"/>
+      <c r="D70" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="27" t="s">
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="30"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C53:C70"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="D36:G36"/>
     <mergeCell ref="D70:G70"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="H10:L10"/>
@@ -9381,110 +9476,15 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C53:C70"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9495,7 +9495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD18FD45-BEF1-4A24-8E9E-51DEF25B9A61}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
@@ -9601,8 +9601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB66CA6E-47C8-4538-B093-184ECDCDD0DB}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>

--- a/기획/시스템 기획/System_LobbyScene.xlsx
+++ b/기획/시스템 기획/System_LobbyScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\1team_UnityProject\기획\시스템 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B059034-15A5-4E1D-A266-4BEA23D330D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB689A0F-C92E-4839-82B7-6C217A294B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="7125" yWindow="855" windowWidth="18825" windowHeight="12360" activeTab="1" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnitManagement Scene 전환 ( 스킨 적용, 강화 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text DiaAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보유 Dia 개수를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image PlusBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) 닉네임 설정 팝업창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image UI_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image UI_DiaAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image UI_UnitManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,18 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Button UnitManagementBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text  UnitManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Unitmanagement Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ▶ 텍스트 박스로 닉네임 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Button StoreBtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Button QuestBtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text  Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ex) "전투"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,14 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text NicknameGuide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"사용할 닉네임을 입력하세요"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"적용"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클릭했을 때, 닉네임 팝업창 종료/ 닉네임 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,22 +319,6 @@
   </si>
   <si>
     <t>클릭했을 때, 적용 팝업창 종료/ 설정 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image CloseBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text SE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,6 +424,86 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Lobby Scene'에 필요한 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image PlusDia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text  UnitText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text DiaText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text  PlayText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text StoreText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text QuestText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button UnitBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Unit Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Scene 전환 ( 스킨 적용, 강화 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text NicknameText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text VolumeText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text BGMText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text SEText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text ApplyText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text CloseText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text NicknameGuideText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_PlayerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3294,22 +3298,6 @@
             </a:rPr>
             <a:t>Unit</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Management</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7941,7 +7929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7954,7 +7942,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -8011,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -8075,7 +8063,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -8091,7 +8079,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -8107,7 +8095,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -8123,7 +8111,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -8139,7 +8127,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -8155,7 +8143,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -8171,7 +8159,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -8231,9 +8219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49A845-E3D3-42ED-9C11-87B3D99F1D64}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8246,7 +8234,7 @@
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -8300,16 +8288,16 @@
     <row r="7" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
       <c r="H8" s="34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -8319,10 +8307,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="43" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -8341,13 +8329,13 @@
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="44"/>
       <c r="D10" s="31" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="31" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -8361,10 +8349,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -8383,13 +8371,13 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="45"/>
       <c r="D12" s="20" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="27"/>
       <c r="H12" s="20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -8404,13 +8392,13 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="45"/>
       <c r="D13" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="27"/>
       <c r="H13" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -8425,13 +8413,13 @@
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="44"/>
       <c r="D14" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
@@ -8445,16 +8433,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -8469,7 +8457,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="45"/>
       <c r="D16" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -8488,7 +8476,7 @@
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" s="45"/>
       <c r="D17" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -8507,7 +8495,7 @@
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="45"/>
       <c r="D18" s="20" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -8526,13 +8514,13 @@
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="45"/>
       <c r="D19" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="27"/>
       <c r="H19" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -8547,13 +8535,13 @@
     <row r="20" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="44"/>
       <c r="D20" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
       <c r="H20" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -8562,16 +8550,16 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -8581,13 +8569,13 @@
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="45"/>
       <c r="D22" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="27"/>
       <c r="H22" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -8597,7 +8585,7 @@
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="45"/>
       <c r="D23" s="20" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -8611,13 +8599,13 @@
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="45"/>
       <c r="D24" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="27"/>
       <c r="H24" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -8627,13 +8615,13 @@
     <row r="25" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="44"/>
       <c r="D25" s="31" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
       <c r="H25" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -8642,10 +8630,10 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" s="43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -8656,13 +8644,13 @@
       <c r="K26" s="29"/>
       <c r="L26" s="39"/>
       <c r="N26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="45"/>
       <c r="D27" s="20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -8676,13 +8664,13 @@
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="45"/>
       <c r="D28" s="20" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="27"/>
       <c r="H28" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8692,13 +8680,13 @@
     <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29" s="45"/>
       <c r="D29" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="27"/>
       <c r="H29" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -8708,13 +8696,13 @@
     <row r="30" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="44"/>
       <c r="D30" s="31" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
       <c r="H30" s="31" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -8723,10 +8711,10 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31" s="43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
@@ -8740,7 +8728,7 @@
     <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32" s="45"/>
       <c r="D32" s="20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -8754,13 +8742,13 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C33" s="45"/>
       <c r="D33" s="20" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="27"/>
       <c r="H33" s="20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -8770,13 +8758,13 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C34" s="45"/>
       <c r="D34" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="27"/>
       <c r="H34" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -8786,13 +8774,13 @@
     <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="44"/>
       <c r="D35" s="31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
       <c r="H35" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -8801,10 +8789,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -8818,7 +8806,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" s="45"/>
       <c r="D37" s="20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -8832,13 +8820,13 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C38" s="45"/>
       <c r="D38" s="20" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="27"/>
       <c r="H38" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -8848,13 +8836,13 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C39" s="45"/>
       <c r="D39" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="27"/>
       <c r="H39" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -8864,13 +8852,13 @@
     <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="44"/>
       <c r="D40" s="31" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
       <c r="H40" s="31" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -8879,16 +8867,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C41" s="43" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -8898,7 +8886,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C42" s="45"/>
       <c r="D42" s="20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -8912,13 +8900,13 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C43" s="45"/>
       <c r="D43" s="20" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="27"/>
       <c r="H43" s="20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -8928,13 +8916,13 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C44" s="45"/>
       <c r="D44" s="20" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="27"/>
       <c r="H44" s="20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -8943,17 +8931,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="27"/>
       <c r="H45" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -8963,7 +8951,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C46" s="45"/>
       <c r="D46" s="20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -8977,13 +8965,13 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C47" s="45"/>
       <c r="D47" s="20" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="27"/>
       <c r="H47" s="20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -8993,13 +8981,13 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C48" s="45"/>
       <c r="D48" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="27"/>
       <c r="H48" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -9009,13 +8997,13 @@
     <row r="49" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="44"/>
       <c r="D49" s="31" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
       <c r="H49" s="31" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
@@ -9024,10 +9012,10 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="43" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
@@ -9041,13 +9029,13 @@
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="45"/>
       <c r="D51" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="27"/>
       <c r="H51" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -9057,13 +9045,13 @@
     <row r="52" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="44"/>
       <c r="D52" s="31" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="31" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -9072,16 +9060,16 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="43" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="28" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
@@ -9091,13 +9079,13 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="45"/>
       <c r="D54" s="40" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
       <c r="G54" s="42"/>
       <c r="H54" s="40" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
@@ -9107,7 +9095,7 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="45"/>
       <c r="D55" s="20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -9121,7 +9109,7 @@
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="45"/>
       <c r="D56" s="20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -9135,13 +9123,13 @@
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="45"/>
       <c r="D57" s="20" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="27"/>
       <c r="H57" s="20" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -9151,7 +9139,7 @@
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="45"/>
       <c r="D58" s="20" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -9165,13 +9153,13 @@
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="45"/>
       <c r="D59" s="20" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="27"/>
       <c r="H59" s="20" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
@@ -9181,7 +9169,7 @@
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="45"/>
       <c r="D60" s="20" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -9195,13 +9183,13 @@
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="45"/>
       <c r="D61" s="20" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="27"/>
       <c r="H61" s="20" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
@@ -9211,7 +9199,7 @@
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="45"/>
       <c r="D62" s="20" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -9225,7 +9213,7 @@
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="45"/>
       <c r="D63" s="20" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -9239,13 +9227,13 @@
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="45"/>
       <c r="D64" s="20" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
       <c r="G64" s="27"/>
       <c r="H64" s="20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -9255,13 +9243,13 @@
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C65" s="45"/>
       <c r="D65" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="27"/>
       <c r="H65" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -9271,13 +9259,13 @@
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C66" s="45"/>
       <c r="D66" s="20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="27"/>
       <c r="H66" s="20" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -9287,7 +9275,7 @@
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C67" s="45"/>
       <c r="D67" s="20" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -9301,13 +9289,13 @@
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C68" s="45"/>
       <c r="D68" s="40" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="42"/>
       <c r="H68" s="40" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -9317,13 +9305,13 @@
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69" s="45"/>
       <c r="D69" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
       <c r="G69" s="27"/>
       <c r="H69" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
@@ -9333,13 +9321,13 @@
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C70" s="44"/>
       <c r="D70" s="31" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
       <c r="H70" s="31" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
@@ -9495,8 +9483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD18FD45-BEF1-4A24-8E9E-51DEF25B9A61}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
@@ -9510,7 +9498,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9548,7 +9536,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9564,27 +9552,27 @@
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9616,7 +9604,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9654,7 +9642,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>

--- a/기획/시스템 기획/System_LobbyScene.xlsx
+++ b/기획/시스템 기획/System_LobbyScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB689A0F-C92E-4839-82B7-6C217A294B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B059034-15A5-4E1D-A266-4BEA23D330D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="855" windowWidth="18825" windowHeight="12360" activeTab="1" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UnitManagement Scene 전환 ( 스킨 적용, 강화 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text DiaAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>보유 Dia 개수를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image PlusBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(1) 닉네임 설정 팝업창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image UI_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image UI_DiaAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image UI_UnitManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image Unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +190,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Button UnitManagementBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text  UnitManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Unitmanagement Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  ▶ 텍스트 박스로 닉네임 설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +230,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Button StoreBtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +258,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Button QuestBtn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +282,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text  Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ex) "전투"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +298,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text NicknameGuide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"사용할 닉네임을 입력하세요"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +330,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"적용"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +366,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>클릭했을 때, 닉네임 팝업창 종료/ 닉네임 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +379,22 @@
   </si>
   <si>
     <t>클릭했을 때, 적용 팝업창 종료/ 설정 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image CloseBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text SE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,86 +500,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Lobby Scene'에 필요한 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image PlusDia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text  UnitText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text DiaText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text  PlayText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text StoreText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text QuestText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button UnitBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Unit Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit Scene 전환 ( 스킨 적용, 강화 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text NicknameText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text VolumeText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text BGMText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text SEText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text ApplyText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text CloseText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text NicknameGuideText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_PlayerInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3298,6 +3294,22 @@
             </a:rPr>
             <a:t>Unit</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Management</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7929,7 +7941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14:L14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7942,7 +7954,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -7999,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -8063,7 +8075,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -8079,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -8095,7 +8107,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -8111,7 +8123,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -8127,7 +8139,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -8143,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -8159,7 +8171,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -8219,9 +8231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49A845-E3D3-42ED-9C11-87B3D99F1D64}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8234,7 +8246,7 @@
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -8288,16 +8300,16 @@
     <row r="7" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
       <c r="H8" s="34" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -8307,10 +8319,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="43" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -8329,13 +8341,13 @@
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="44"/>
       <c r="D10" s="31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33"/>
       <c r="H10" s="31" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -8349,10 +8361,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -8371,13 +8383,13 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="45"/>
       <c r="D12" s="20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="27"/>
       <c r="H12" s="20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -8392,13 +8404,13 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="45"/>
       <c r="D13" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="27"/>
       <c r="H13" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -8413,13 +8425,13 @@
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="44"/>
       <c r="D14" s="31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="33"/>
       <c r="H14" s="31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
@@ -8433,16 +8445,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -8457,7 +8469,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C16" s="45"/>
       <c r="D16" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -8476,7 +8488,7 @@
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" s="45"/>
       <c r="D17" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -8495,7 +8507,7 @@
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="45"/>
       <c r="D18" s="20" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -8514,13 +8526,13 @@
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="45"/>
       <c r="D19" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="27"/>
       <c r="H19" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -8535,13 +8547,13 @@
     <row r="20" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="44"/>
       <c r="D20" s="31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
       <c r="H20" s="31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -8550,16 +8562,16 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C21" s="43" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -8569,13 +8581,13 @@
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C22" s="45"/>
       <c r="D22" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="27"/>
       <c r="H22" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -8585,7 +8597,7 @@
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C23" s="45"/>
       <c r="D23" s="20" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -8599,13 +8611,13 @@
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C24" s="45"/>
       <c r="D24" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="27"/>
       <c r="H24" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -8615,13 +8627,13 @@
     <row r="25" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="44"/>
       <c r="D25" s="31" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="33"/>
       <c r="H25" s="31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -8630,10 +8642,10 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C26" s="43" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -8644,13 +8656,13 @@
       <c r="K26" s="29"/>
       <c r="L26" s="39"/>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C27" s="45"/>
       <c r="D27" s="20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -8664,13 +8676,13 @@
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C28" s="45"/>
       <c r="D28" s="20" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="27"/>
       <c r="H28" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8680,13 +8692,13 @@
     <row r="29" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C29" s="45"/>
       <c r="D29" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="27"/>
       <c r="H29" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -8696,13 +8708,13 @@
     <row r="30" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="44"/>
       <c r="D30" s="31" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="33"/>
       <c r="H30" s="31" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -8711,10 +8723,10 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C31" s="43" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
@@ -8728,7 +8740,7 @@
     <row r="32" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C32" s="45"/>
       <c r="D32" s="20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -8742,13 +8754,13 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C33" s="45"/>
       <c r="D33" s="20" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="27"/>
       <c r="H33" s="20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -8758,13 +8770,13 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C34" s="45"/>
       <c r="D34" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="27"/>
       <c r="H34" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -8774,13 +8786,13 @@
     <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="44"/>
       <c r="D35" s="31" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
       <c r="H35" s="31" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -8789,10 +8801,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C36" s="43" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -8806,7 +8818,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C37" s="45"/>
       <c r="D37" s="20" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -8820,13 +8832,13 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C38" s="45"/>
       <c r="D38" s="20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="27"/>
       <c r="H38" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -8836,13 +8848,13 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C39" s="45"/>
       <c r="D39" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="27"/>
       <c r="H39" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
@@ -8852,13 +8864,13 @@
     <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C40" s="44"/>
       <c r="D40" s="31" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
       <c r="H40" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -8867,16 +8879,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C41" s="43" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="28" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
@@ -8886,7 +8898,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C42" s="45"/>
       <c r="D42" s="20" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -8900,13 +8912,13 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C43" s="45"/>
       <c r="D43" s="20" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="27"/>
       <c r="H43" s="20" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -8916,13 +8928,13 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C44" s="45"/>
       <c r="D44" s="20" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="27"/>
       <c r="H44" s="20" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -8931,17 +8943,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="20" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="27"/>
       <c r="H45" s="20" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -8951,7 +8963,7 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C46" s="45"/>
       <c r="D46" s="20" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -8965,13 +8977,13 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C47" s="45"/>
       <c r="D47" s="20" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="27"/>
       <c r="H47" s="20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -8981,13 +8993,13 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C48" s="45"/>
       <c r="D48" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="27"/>
       <c r="H48" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
@@ -8997,13 +9009,13 @@
     <row r="49" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="44"/>
       <c r="D49" s="31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
       <c r="H49" s="31" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
@@ -9012,10 +9024,10 @@
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="43" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
@@ -9029,13 +9041,13 @@
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="45"/>
       <c r="D51" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="27"/>
       <c r="H51" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -9045,13 +9057,13 @@
     <row r="52" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="44"/>
       <c r="D52" s="31" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="31" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -9060,16 +9072,16 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="43" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="28" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
@@ -9079,13 +9091,13 @@
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="45"/>
       <c r="D54" s="40" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
       <c r="G54" s="42"/>
       <c r="H54" s="40" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
@@ -9095,7 +9107,7 @@
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="45"/>
       <c r="D55" s="20" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -9109,7 +9121,7 @@
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="45"/>
       <c r="D56" s="20" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -9123,13 +9135,13 @@
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="45"/>
       <c r="D57" s="20" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="27"/>
       <c r="H57" s="20" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
@@ -9139,7 +9151,7 @@
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="45"/>
       <c r="D58" s="20" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -9153,13 +9165,13 @@
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="45"/>
       <c r="D59" s="20" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="27"/>
       <c r="H59" s="20" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
@@ -9169,7 +9181,7 @@
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="45"/>
       <c r="D60" s="20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -9183,13 +9195,13 @@
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="45"/>
       <c r="D61" s="20" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="27"/>
       <c r="H61" s="20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
@@ -9199,7 +9211,7 @@
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="45"/>
       <c r="D62" s="20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -9213,7 +9225,7 @@
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="45"/>
       <c r="D63" s="20" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -9227,13 +9239,13 @@
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="45"/>
       <c r="D64" s="20" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
       <c r="G64" s="27"/>
       <c r="H64" s="20" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
@@ -9243,13 +9255,13 @@
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C65" s="45"/>
       <c r="D65" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="27"/>
       <c r="H65" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -9259,13 +9271,13 @@
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C66" s="45"/>
       <c r="D66" s="20" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="27"/>
       <c r="H66" s="20" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -9275,7 +9287,7 @@
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C67" s="45"/>
       <c r="D67" s="20" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -9289,13 +9301,13 @@
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C68" s="45"/>
       <c r="D68" s="40" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="42"/>
       <c r="H68" s="40" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I68" s="41"/>
       <c r="J68" s="41"/>
@@ -9305,13 +9317,13 @@
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69" s="45"/>
       <c r="D69" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
       <c r="G69" s="27"/>
       <c r="H69" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
@@ -9321,13 +9333,13 @@
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C70" s="44"/>
       <c r="D70" s="31" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="33"/>
       <c r="H70" s="31" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
@@ -9483,8 +9495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD18FD45-BEF1-4A24-8E9E-51DEF25B9A61}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
@@ -9498,7 +9510,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9536,7 +9548,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9552,27 +9564,27 @@
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -9604,7 +9616,7 @@
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -9642,7 +9654,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
